--- a/ZIA.R Worklog Y1A ADSAI24-25.xlsx
+++ b/ZIA.R Worklog Y1A ADSAI24-25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edubuas-my.sharepoint.com/personal/240607_buas_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dceb6c140960eb6c/Documents/GitHub/2024-25AI_Y1/ZIA_24-25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{EE251146-606D-477E-B570-D713F3593E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8929B40C-8CBE-470F-8644-BC8B0B6CBF88}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{EE251146-606D-477E-B570-D713F3593E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BACC7E6B-37CB-499E-99D6-36DAC9644A90}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worklog_Tasks&amp;Times" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,14 @@
     <sheet name="Drop-downs" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$115</definedName>
-    <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$119</definedName>
+    <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
     <customWorkbookView name="TODO" guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -356,6 +355,83 @@
   <si>
     <t>This one was an easy one ot to much I had to do that I didn’t already know so it was reletifly okay</t>
   </si>
+  <si>
+    <t>Setup your computer for using Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the notebook 1 </t>
+  </si>
+  <si>
+    <t>Complete the notebook 2</t>
+  </si>
+  <si>
+    <r>
+      <t>Solve the questions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE67E22"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Say “Hello, World!” With Python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE67E22"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Python If-Else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> on HackerRank</t>
+    </r>
+  </si>
+  <si>
+    <t>I have no idea why, but I was struggeling whit this, turns out I didn’t fully download the annconda</t>
+  </si>
+  <si>
+    <t>this was fun, I  had to much fun and might have not completely followd the instructions, and just did some chalenges…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its reletively easy bc I did the chalnges first, but it was a good revuw, too some notes, just incase. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was a bit boring, but got it done. </t>
+  </si>
+  <si>
+    <t>Review Independent Study Material </t>
+  </si>
+  <si>
+    <t>9/42024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precenting </t>
+  </si>
+  <si>
+    <t>DataLab Tasks</t>
+  </si>
+  <si>
+    <t>took some notes, reviewd and got ready to take the quizze</t>
+  </si>
 </sst>
 </file>
 
@@ -366,7 +442,7 @@
     <numFmt numFmtId="165" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -457,6 +533,18 @@
       <sz val="8"/>
       <color rgb="FF2C3E50"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE67E22"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -663,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,17 +883,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -818,36 +937,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -855,7 +944,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,10 +1057,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,28 +1360,28 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="81.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="5" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="11" max="11" width="81.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1331,56 +1416,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>45331</v>
       </c>
@@ -1406,7 +1491,7 @@
         <v>1.25</v>
       </c>
       <c r="I5" s="30">
-        <f t="shared" ref="I5:I15" si="0">H5-G5</f>
+        <f t="shared" ref="I5:I19" si="0">H5-G5</f>
         <v>0.25</v>
       </c>
       <c r="J5" s="14"/>
@@ -1414,7 +1499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>45331</v>
       </c>
@@ -1448,7 +1533,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>45538</v>
       </c>
@@ -1482,7 +1567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>45360</v>
       </c>
@@ -1505,18 +1590,18 @@
         <v>3</v>
       </c>
       <c r="H8" s="30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I8" s="30">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>45539</v>
       </c>
@@ -1526,7 +1611,7 @@
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="49" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -1539,18 +1624,18 @@
         <v>3</v>
       </c>
       <c r="H9" s="30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I9" s="30">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>45391</v>
       </c>
@@ -1573,20 +1658,20 @@
         <v>3</v>
       </c>
       <c r="H10" s="30">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="30">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
-        <v>45539</v>
+    <row r="11" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>55</v>
@@ -1607,217 +1692,310 @@
         <v>2</v>
       </c>
       <c r="H11" s="30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I11" s="30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>45391</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="D12" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>3</v>
+      </c>
       <c r="I12" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="29"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="28"/>
+      <c r="K12" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>45541</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="D13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="30">
+        <v>3</v>
+      </c>
+      <c r="H13" s="30">
+        <v>2</v>
+      </c>
       <c r="I13" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J13" s="29"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="28"/>
+      <c r="K13" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>45421</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="C14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="D14" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="30">
+        <v>3</v>
+      </c>
+      <c r="H14" s="30">
+        <v>2</v>
+      </c>
       <c r="I14" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J14" s="29"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="K14" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>45421</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>45541</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30">
+        <v>2</v>
+      </c>
+      <c r="I16" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>45541</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>45541</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="30">
+        <v>3</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="24">
-        <f t="shared" ref="G15:H15" si="1">SUM(G5:G14)</f>
-        <v>19</v>
-      </c>
-      <c r="H15" s="24">
-        <f t="shared" si="1"/>
-        <v>12.25</v>
-      </c>
-      <c r="I15" s="24">
+      <c r="F19" s="21"/>
+      <c r="G19" s="24">
+        <f>SUM(G5:G18)</f>
+        <v>33.5</v>
+      </c>
+      <c r="H19" s="24">
+        <f>SUM(H5:H16)</f>
+        <v>24.25</v>
+      </c>
+      <c r="I19" s="24">
         <f t="shared" si="0"/>
-        <v>-6.75</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
+        <v>-9.25</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B21" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-    </row>
-    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30">
-        <f t="shared" ref="I19:I29" si="2">H19-G19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="28"/>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="12" t="s">
@@ -1829,13 +2007,13 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I23:I33" si="1">H23-G23</f>
         <v>0</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="28"/>
       <c r="C24" s="12" t="s">
@@ -1847,13 +2025,13 @@
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="28"/>
     </row>
-    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="28"/>
       <c r="C25" s="12" t="s">
@@ -1865,13 +2043,13 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="12" t="s">
@@ -1883,13 +2061,13 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="28"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="12" t="s">
@@ -1901,13 +2079,13 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="28"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="12" t="s">
@@ -1919,158 +2097,158 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="28"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
+    <row r="29" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="24">
-        <f t="shared" ref="G29:H29" si="3">SUM(G17:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="24">
+      <c r="F33" s="21"/>
+      <c r="G33" s="24">
+        <f t="shared" ref="G33:H33" si="2">SUM(G21:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="I33" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B35" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+    </row>
+    <row r="36" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B36" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55"/>
-    </row>
-    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30">
-        <f t="shared" ref="I33:I43" si="4">H33-G33</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="28"/>
-    </row>
-    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="28"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="28"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="28"/>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="28"/>
       <c r="C37" s="12" t="s">
@@ -2082,13 +2260,13 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I37:I47" si="3">H37-G37</f>
         <v>0</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="28"/>
     </row>
-    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="28"/>
       <c r="C38" s="12" t="s">
@@ -2100,13 +2278,13 @@
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="28"/>
     </row>
-    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="28"/>
       <c r="C39" s="12" t="s">
@@ -2118,13 +2296,13 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="28"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="28"/>
       <c r="C40" s="12" t="s">
@@ -2136,13 +2314,13 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="28"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="28"/>
       <c r="C41" s="12" t="s">
@@ -2154,13 +2332,13 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="28"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="28"/>
       <c r="C42" s="12" t="s">
@@ -2172,158 +2350,158 @@
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="28"/>
     </row>
-    <row r="43" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21" t="s">
+    <row r="43" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="28"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="29"/>
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="28"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="24">
-        <f t="shared" ref="G43:H43" si="5">SUM(G33:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="24">
+      <c r="F47" s="21"/>
+      <c r="G47" s="24">
+        <f t="shared" ref="G47:H47" si="4">SUM(G37:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
+      <c r="I47" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
-    </row>
-    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B49" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55"/>
-    </row>
-    <row r="46" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+    </row>
+    <row r="50" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B50" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="55"/>
-    </row>
-    <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30">
-        <f t="shared" ref="I47:I57" si="6">H47-G47</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="29"/>
-      <c r="K47" s="28"/>
-    </row>
-    <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="28"/>
-    </row>
-    <row r="49" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="29"/>
-      <c r="K49" s="28"/>
-    </row>
-    <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="28"/>
-    </row>
-    <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="54"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="33"/>
       <c r="B51" s="28"/>
       <c r="C51" s="12" t="s">
@@ -2335,13 +2513,13 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I51:I61" si="5">H51-G51</f>
         <v>0</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="28"/>
     </row>
-    <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="33"/>
       <c r="B52" s="28"/>
       <c r="C52" s="12" t="s">
@@ -2353,13 +2531,13 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J52" s="29"/>
       <c r="K52" s="28"/>
     </row>
-    <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="33"/>
       <c r="B53" s="28"/>
       <c r="C53" s="12" t="s">
@@ -2371,13 +2549,13 @@
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J53" s="29"/>
       <c r="K53" s="28"/>
     </row>
-    <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
       <c r="B54" s="28"/>
       <c r="C54" s="12" t="s">
@@ -2389,13 +2567,13 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="28"/>
     </row>
-    <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="28"/>
       <c r="C55" s="12" t="s">
@@ -2407,13 +2585,13 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J55" s="29"/>
       <c r="K55" s="28"/>
     </row>
-    <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="33"/>
       <c r="B56" s="28"/>
       <c r="C56" s="12" t="s">
@@ -2425,158 +2603,158 @@
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="28"/>
     </row>
-    <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21" t="s">
+    <row r="57" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="29"/>
+      <c r="K57" s="28"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="29"/>
+      <c r="K58" s="28"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="28"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="29"/>
+      <c r="K59" s="28"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="29"/>
+      <c r="K60" s="28"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="24">
-        <f t="shared" ref="G57:H57" si="7">SUM(G47:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="24">
+      <c r="F61" s="21"/>
+      <c r="G61" s="24">
+        <f t="shared" ref="G61:H61" si="6">SUM(G51:G60)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="61" t="s">
+      <c r="I61" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="55"/>
-    </row>
-    <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="36" t="s">
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
+    </row>
+    <row r="63" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B63" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="55"/>
-    </row>
-    <row r="60" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="37" t="s">
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B64" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="55"/>
-    </row>
-    <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30">
-        <f t="shared" ref="I61:I71" si="8">H61-G61</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="29"/>
-      <c r="K61" s="28"/>
-    </row>
-    <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="29"/>
-      <c r="K62" s="28"/>
-    </row>
-    <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="29"/>
-      <c r="K63" s="28"/>
-    </row>
-    <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="29"/>
-      <c r="K64" s="28"/>
-    </row>
-    <row r="65" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="54"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="33"/>
       <c r="B65" s="28"/>
       <c r="C65" s="12" t="s">
@@ -2588,13 +2766,13 @@
       <c r="G65" s="30"/>
       <c r="H65" s="30"/>
       <c r="I65" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I65:I75" si="7">H65-G65</f>
         <v>0</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="28"/>
     </row>
-    <row r="66" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
       <c r="B66" s="28"/>
       <c r="C66" s="12" t="s">
@@ -2606,13 +2784,13 @@
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="28"/>
     </row>
-    <row r="67" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="33"/>
       <c r="B67" s="28"/>
       <c r="C67" s="12" t="s">
@@ -2624,13 +2802,13 @@
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J67" s="29"/>
       <c r="K67" s="28"/>
     </row>
-    <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="33"/>
       <c r="B68" s="28"/>
       <c r="C68" s="12" t="s">
@@ -2642,13 +2820,13 @@
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="28"/>
     </row>
-    <row r="69" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
       <c r="B69" s="28"/>
       <c r="C69" s="12" t="s">
@@ -2660,13 +2838,13 @@
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="28"/>
     </row>
-    <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="33"/>
       <c r="B70" s="28"/>
       <c r="C70" s="12" t="s">
@@ -2678,158 +2856,158 @@
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J70" s="29"/>
       <c r="K70" s="28"/>
     </row>
-    <row r="71" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21" t="s">
+    <row r="71" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="33"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="28"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="29"/>
+      <c r="K71" s="28"/>
+    </row>
+    <row r="72" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="29"/>
+      <c r="K72" s="28"/>
+    </row>
+    <row r="73" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="33"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="29"/>
+      <c r="K73" s="28"/>
+    </row>
+    <row r="74" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="33"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="28"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="29"/>
+      <c r="K74" s="28"/>
+    </row>
+    <row r="75" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="24">
-        <f t="shared" ref="G71:H71" si="9">SUM(G61:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="24">
+      <c r="F75" s="21"/>
+      <c r="G75" s="24">
+        <f t="shared" ref="G75:H75" si="8">SUM(G65:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="56" t="s">
+      <c r="I75" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="25"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="55"/>
-    </row>
-    <row r="73" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="38" t="s">
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="54"/>
+    </row>
+    <row r="77" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B77" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="55"/>
-    </row>
-    <row r="74" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="39" t="s">
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="54"/>
+    </row>
+    <row r="78" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B78" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="55"/>
-    </row>
-    <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30">
-        <f t="shared" ref="I75:I85" si="10">H75-G75</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="29"/>
-      <c r="K75" s="28"/>
-    </row>
-    <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="29"/>
-      <c r="K76" s="28"/>
-    </row>
-    <row r="77" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="29"/>
-      <c r="K77" s="28"/>
-    </row>
-    <row r="78" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="29"/>
-      <c r="K78" s="28"/>
-    </row>
-    <row r="79" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="54"/>
+    </row>
+    <row r="79" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
       <c r="B79" s="28"/>
       <c r="C79" s="12" t="s">
@@ -2841,13 +3019,13 @@
       <c r="G79" s="30"/>
       <c r="H79" s="30"/>
       <c r="I79" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I79:I89" si="9">H79-G79</f>
         <v>0</v>
       </c>
       <c r="J79" s="29"/>
       <c r="K79" s="28"/>
     </row>
-    <row r="80" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="33"/>
       <c r="B80" s="28"/>
       <c r="C80" s="12" t="s">
@@ -2859,13 +3037,13 @@
       <c r="G80" s="30"/>
       <c r="H80" s="30"/>
       <c r="I80" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="29"/>
       <c r="K80" s="28"/>
     </row>
-    <row r="81" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="33"/>
       <c r="B81" s="28"/>
       <c r="C81" s="12" t="s">
@@ -2877,13 +3055,13 @@
       <c r="G81" s="30"/>
       <c r="H81" s="30"/>
       <c r="I81" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="29"/>
       <c r="K81" s="28"/>
     </row>
-    <row r="82" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="33"/>
       <c r="B82" s="28"/>
       <c r="C82" s="12" t="s">
@@ -2895,13 +3073,13 @@
       <c r="G82" s="30"/>
       <c r="H82" s="30"/>
       <c r="I82" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="29"/>
       <c r="K82" s="28"/>
     </row>
-    <row r="83" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="33"/>
       <c r="B83" s="28"/>
       <c r="C83" s="12" t="s">
@@ -2913,13 +3091,13 @@
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
       <c r="I83" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="28"/>
     </row>
-    <row r="84" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="33"/>
       <c r="B84" s="28"/>
       <c r="C84" s="12" t="s">
@@ -2931,158 +3109,158 @@
       <c r="G84" s="30"/>
       <c r="H84" s="30"/>
       <c r="I84" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="29"/>
       <c r="K84" s="28"/>
     </row>
-    <row r="85" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21" t="s">
+    <row r="85" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="33"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="28"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="29"/>
+      <c r="K85" s="28"/>
+    </row>
+    <row r="86" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="28"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="29"/>
+      <c r="K86" s="28"/>
+    </row>
+    <row r="87" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="28"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="29"/>
+      <c r="K87" s="28"/>
+    </row>
+    <row r="88" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="28"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="29"/>
+      <c r="K88" s="28"/>
+    </row>
+    <row r="89" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="24">
-        <f t="shared" ref="G85:H85" si="11">SUM(G75:G84)</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="24">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="24">
+      <c r="F89" s="21"/>
+      <c r="G89" s="24">
+        <f t="shared" ref="G89:H89" si="10">SUM(G79:G88)</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J85" s="25"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="58" t="s">
+      <c r="I89" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="25"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="55"/>
-    </row>
-    <row r="87" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="40" t="s">
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="54"/>
+    </row>
+    <row r="91" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B91" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="55"/>
-    </row>
-    <row r="88" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="41" t="s">
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="54"/>
+    </row>
+    <row r="92" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="59" t="s">
+      <c r="B92" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="55"/>
-    </row>
-    <row r="89" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30">
-        <f t="shared" ref="I89:I99" si="12">H89-G89</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="29"/>
-      <c r="K89" s="28"/>
-    </row>
-    <row r="90" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="29"/>
-      <c r="K90" s="28"/>
-    </row>
-    <row r="91" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="29"/>
-      <c r="K91" s="28"/>
-    </row>
-    <row r="92" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="29"/>
-      <c r="K92" s="28"/>
-    </row>
-    <row r="93" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="54"/>
+    </row>
+    <row r="93" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="33"/>
       <c r="B93" s="28"/>
       <c r="C93" s="12" t="s">
@@ -3094,13 +3272,13 @@
       <c r="G93" s="30"/>
       <c r="H93" s="30"/>
       <c r="I93" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I93:I103" si="11">H93-G93</f>
         <v>0</v>
       </c>
       <c r="J93" s="29"/>
       <c r="K93" s="28"/>
     </row>
-    <row r="94" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="33"/>
       <c r="B94" s="28"/>
       <c r="C94" s="12" t="s">
@@ -3112,13 +3290,13 @@
       <c r="G94" s="30"/>
       <c r="H94" s="30"/>
       <c r="I94" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J94" s="29"/>
       <c r="K94" s="28"/>
     </row>
-    <row r="95" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="33"/>
       <c r="B95" s="28"/>
       <c r="C95" s="12" t="s">
@@ -3130,13 +3308,13 @@
       <c r="G95" s="30"/>
       <c r="H95" s="30"/>
       <c r="I95" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J95" s="29"/>
       <c r="K95" s="28"/>
     </row>
-    <row r="96" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="33"/>
       <c r="B96" s="28"/>
       <c r="C96" s="12" t="s">
@@ -3148,13 +3326,13 @@
       <c r="G96" s="30"/>
       <c r="H96" s="30"/>
       <c r="I96" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J96" s="29"/>
       <c r="K96" s="28"/>
     </row>
-    <row r="97" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="33"/>
       <c r="B97" s="28"/>
       <c r="C97" s="12" t="s">
@@ -3166,13 +3344,13 @@
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J97" s="29"/>
       <c r="K97" s="28"/>
     </row>
-    <row r="98" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="33"/>
       <c r="B98" s="28"/>
       <c r="C98" s="12" t="s">
@@ -3184,158 +3362,158 @@
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
       <c r="I98" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J98" s="29"/>
       <c r="K98" s="28"/>
     </row>
-    <row r="99" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21" t="s">
+    <row r="99" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="33"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="29"/>
+      <c r="K99" s="28"/>
+    </row>
+    <row r="100" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="28"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="29"/>
+      <c r="K100" s="28"/>
+    </row>
+    <row r="101" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="33"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="28"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="29"/>
+      <c r="K101" s="28"/>
+    </row>
+    <row r="102" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="28"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="29"/>
+      <c r="K102" s="28"/>
+    </row>
+    <row r="103" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="19"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="21"/>
-      <c r="G99" s="24">
-        <f t="shared" ref="G99:H99" si="13">SUM(G89:G98)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="24">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="24">
+      <c r="F103" s="21"/>
+      <c r="G103" s="24">
+        <f t="shared" ref="G103:H103" si="12">SUM(G93:G102)</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J99" s="25"/>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="62" t="s">
+      <c r="I103" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="25"/>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="A104" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="55"/>
-    </row>
-    <row r="101" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="42" t="s">
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="54"/>
+    </row>
+    <row r="105" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="A105" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="49" t="s">
+      <c r="B105" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="51"/>
-    </row>
-    <row r="102" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="43" t="s">
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="65"/>
+    </row>
+    <row r="106" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="52" t="s">
+      <c r="B106" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="51"/>
-    </row>
-    <row r="103" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="33"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30">
-        <f t="shared" ref="I103:I113" si="14">H103-G103</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="29"/>
-      <c r="K103" s="28"/>
-    </row>
-    <row r="104" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="33"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="29"/>
-      <c r="K104" s="28"/>
-    </row>
-    <row r="105" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="33"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="29"/>
-      <c r="K105" s="28"/>
-    </row>
-    <row r="106" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="33"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="29"/>
-      <c r="K106" s="28"/>
-    </row>
-    <row r="107" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="65"/>
+    </row>
+    <row r="107" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="33"/>
       <c r="B107" s="28"/>
       <c r="C107" s="12" t="s">
@@ -3347,13 +3525,13 @@
       <c r="G107" s="30"/>
       <c r="H107" s="30"/>
       <c r="I107" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I107:I117" si="13">H107-G107</f>
         <v>0</v>
       </c>
       <c r="J107" s="29"/>
       <c r="K107" s="28"/>
     </row>
-    <row r="108" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="33"/>
       <c r="B108" s="28"/>
       <c r="C108" s="12" t="s">
@@ -3365,13 +3543,13 @@
       <c r="G108" s="30"/>
       <c r="H108" s="30"/>
       <c r="I108" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J108" s="29"/>
       <c r="K108" s="28"/>
     </row>
-    <row r="109" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="33"/>
       <c r="B109" s="28"/>
       <c r="C109" s="12" t="s">
@@ -3383,13 +3561,13 @@
       <c r="G109" s="30"/>
       <c r="H109" s="30"/>
       <c r="I109" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J109" s="29"/>
       <c r="K109" s="28"/>
     </row>
-    <row r="110" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="33"/>
       <c r="B110" s="28"/>
       <c r="C110" s="12" t="s">
@@ -3401,13 +3579,13 @@
       <c r="G110" s="30"/>
       <c r="H110" s="30"/>
       <c r="I110" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J110" s="29"/>
       <c r="K110" s="28"/>
     </row>
-    <row r="111" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="33"/>
       <c r="B111" s="28"/>
       <c r="C111" s="12" t="s">
@@ -3419,13 +3597,13 @@
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
       <c r="I111" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J111" s="29"/>
       <c r="K111" s="28"/>
     </row>
-    <row r="112" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="33"/>
       <c r="B112" s="28"/>
       <c r="C112" s="12" t="s">
@@ -3437,65 +3615,137 @@
       <c r="G112" s="30"/>
       <c r="H112" s="30"/>
       <c r="I112" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J112" s="29"/>
       <c r="K112" s="28"/>
     </row>
-    <row r="113" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="19"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21" t="s">
+    <row r="113" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="33"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="28"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="29"/>
+      <c r="K113" s="28"/>
+    </row>
+    <row r="114" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="33"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="28"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="29"/>
+      <c r="K114" s="28"/>
+    </row>
+    <row r="115" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="28"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="29"/>
+      <c r="K115" s="28"/>
+    </row>
+    <row r="116" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="33"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="28"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="29"/>
+      <c r="K116" s="28"/>
+    </row>
+    <row r="117" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="19"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="21"/>
-      <c r="G113" s="24">
-        <f t="shared" ref="G113:H113" si="15">SUM(G103:G112)</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="24">
+      <c r="F117" s="21"/>
+      <c r="G117" s="24">
+        <f t="shared" ref="G117:H117" si="14">SUM(G107:G116)</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="25"/>
+      <c r="K117" s="21"/>
+    </row>
+    <row r="118" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="E119" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="45"/>
+      <c r="G119" s="46">
+        <f t="shared" ref="G119:H119" si="15">G19+G33+G47+G61+G75+G89+G103+G117</f>
+        <v>33.5</v>
+      </c>
+      <c r="H119" s="46">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="24">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="25"/>
-      <c r="K113" s="21"/>
-    </row>
-    <row r="114" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G114" s="44"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="30"/>
-    </row>
-    <row r="115" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E115" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" s="45"/>
-      <c r="G115" s="46">
-        <f t="shared" ref="G115:H115" si="16">G15+G29+G43+G57+G71+G85+G99+G113</f>
-        <v>19</v>
-      </c>
-      <c r="H115" s="46">
-        <f t="shared" si="16"/>
-        <v>12.25</v>
-      </c>
-      <c r="I115" s="46">
-        <f>H115-G115</f>
-        <v>-6.75</v>
+        <v>24.25</v>
+      </c>
+      <c r="I119" s="46">
+        <f>H119-G119</f>
+        <v>-9.25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{6AF30F8B-56C2-4B21-8038-B523858BA3EF}">
+      <autoFilter ref="A1:K15" xr:uid="{60297088-A1AF-4216-A24D-B5D58047F710}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -3506,32 +3756,32 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="B105:K105"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B64:K64"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="B77:K77"/>
+    <mergeCell ref="B78:K78"/>
+    <mergeCell ref="A90:K90"/>
+    <mergeCell ref="B91:K91"/>
+    <mergeCell ref="B92:K92"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="A48:K48"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="B59:K59"/>
-    <mergeCell ref="A100:K100"/>
-    <mergeCell ref="B101:K101"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="B74:K74"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="B87:K87"/>
-    <mergeCell ref="B88:K88"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="B21:K21"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:B14 B17:B28 B33:B42 B47:B56 B61:B70 B75:B84 B89:B98 B103:B112">
+  <conditionalFormatting sqref="B5:B18 B21:B32 B37:B46 B51:B60 B65:B74 B79:B88 B93:B102 B107:B116">
     <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -3548,7 +3798,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B15 B17:B29 B31:B43 B45:B57 B59:B71 B73:B85 B87:B99 B101:B112">
+  <conditionalFormatting sqref="B5:B19 B21:B33 B35:B47 B49:B61 B63:B75 B77:B89 B91:B103 B105:B116">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -3556,17 +3806,17 @@
       <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G15 G19:G29 G33:G43 G47:G57 G61:G71 G75:G85 G89:G99 G103:G115">
+  <conditionalFormatting sqref="G1 G3:G19 G23:G33 G37:G47 G51:G61 G65:G75 G79:G89 G93:G103 G107:G119">
     <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H115">
+  <conditionalFormatting sqref="H1:H119">
     <cfRule type="containsBlanks" dxfId="2" priority="11">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I15 I19:I29 I33:I43 I47:I57 I61:I71 I75:I85 I89:I99 I103:I115">
+  <conditionalFormatting sqref="I5:I19 I23:I33 I37:I47 I51:I61 I65:I75 I79:I89 I93:I103 I107:I119">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
@@ -3583,19 +3833,19 @@
           <x14:formula1>
             <xm:f>'Drop-downs'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E14 E19:E28 E33:E42 E47:E56 E61:E70 E75:E84 E89:E98 E103:E112</xm:sqref>
+          <xm:sqref>E5:E18 E23:E32 E37:E46 E51:E60 E65:E74 E79:E88 E93:E102 E107:E116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B14 B19:B28 B33:B42 B47:B56 B61:B70 B75:B84 B89:B98 B103:B112</xm:sqref>
+          <xm:sqref>B5:B18 B23:B32 B37:B46 B51:B60 B65:B74 B79:B88 B93:B102 B107:B116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{022AB9B7-3090-420D-A92F-6C31608AE4FF}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F19:F28 F103:F112 F33:F42 F47:F56 F61:F70 F75:F84 F89:F98 F5:F14</xm:sqref>
+          <xm:sqref>F23:F32 F107:F116 F37:F46 F51:F60 F65:F74 F79:F88 F93:F102 F5:F18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3614,13 +3864,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>29</v>
       </c>
@@ -3652,7 +3902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>'Drop-downs'!C2</f>
         <v>-</v>
@@ -3670,83 +3920,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="str">
         <f>'Drop-downs'!C3</f>
         <v>ILO 0.1</v>
       </c>
       <c r="C4" s="15" cm="1">
-        <f t="array" ref="C4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$14,'Worklog_Tasks&amp;Times'!$F$5:$F$14=$B4)),0)</f>
-        <v>12.25</v>
+        <f t="array" ref="C4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$15,'Worklog_Tasks&amp;Times'!$F$5:$F$15=$B4)),0)</f>
+        <v>22.25</v>
       </c>
       <c r="D4" s="15" cm="1">
-        <f t="array" ref="D4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$19:$H$28,'Worklog_Tasks&amp;Times'!$F$19:$F$28=$B4)),0)</f>
+        <f t="array" ref="D4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$23:$H$32,'Worklog_Tasks&amp;Times'!$F$23:$F$32=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="15" cm="1">
-        <f t="array" ref="E4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$33:$H$42,'Worklog_Tasks&amp;Times'!$F$33:$F$42=$B4)),0)</f>
+        <f t="array" ref="E4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$37:$H$46,'Worklog_Tasks&amp;Times'!$F$37:$F$46=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="15" cm="1">
-        <f t="array" ref="F4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$47:$H$56,'Worklog_Tasks&amp;Times'!$F$47:$F$56=$B4)),0)</f>
+        <f t="array" ref="F4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$51:$H$60,'Worklog_Tasks&amp;Times'!$F$51:$F$60=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="G4" s="15" cm="1">
-        <f t="array" ref="G4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$61:$H$70,'Worklog_Tasks&amp;Times'!$F$61:$F$70=$B4)),0)</f>
+        <f t="array" ref="G4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$65:$H$74,'Worklog_Tasks&amp;Times'!$F$65:$F$74=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="15" cm="1">
-        <f t="array" ref="H4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$75:$H$84,'Worklog_Tasks&amp;Times'!$F$75:$F$84=$B4)),0)</f>
+        <f t="array" ref="H4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$79:$H$88,'Worklog_Tasks&amp;Times'!$F$79:$F$88=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="15" cm="1">
-        <f t="array" ref="I4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$89:$H$98,'Worklog_Tasks&amp;Times'!$F$89:$F$98=$B4)),0)</f>
+        <f t="array" ref="I4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$93:$H$102,'Worklog_Tasks&amp;Times'!$F$93:$F$102=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="J4" s="15" cm="1">
-        <f t="array" ref="J4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$103:$H$112,'Worklog_Tasks&amp;Times'!$F$103:$F$112=$B4)),0)</f>
+        <f t="array" ref="J4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$107:$H$116,'Worklog_Tasks&amp;Times'!$F$107:$F$116=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="str">
         <f>'Drop-downs'!C4</f>
         <v>ILO 0.2</v>
       </c>
       <c r="C5" s="15" cm="1">
-        <f t="array" ref="C5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$14,'Worklog_Tasks&amp;Times'!$F$5:$F$14=$B5)),0)</f>
+        <f t="array" ref="C5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$15,'Worklog_Tasks&amp;Times'!$F$5:$F$15=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="D5" s="15" cm="1">
-        <f t="array" ref="D5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$19:$H$28,'Worklog_Tasks&amp;Times'!$F$19:$F$28=$B5)),0)</f>
+        <f t="array" ref="D5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$23:$H$32,'Worklog_Tasks&amp;Times'!$F$23:$F$32=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="E5" s="15" cm="1">
-        <f t="array" ref="E5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$33:$H$42,'Worklog_Tasks&amp;Times'!$F$33:$F$42=$B5)),0)</f>
+        <f t="array" ref="E5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$37:$H$46,'Worklog_Tasks&amp;Times'!$F$37:$F$46=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="F5" s="15" cm="1">
-        <f t="array" ref="F5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$47:$H$56,'Worklog_Tasks&amp;Times'!$F$47:$F$56=$B5)),0)</f>
+        <f t="array" ref="F5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$51:$H$60,'Worklog_Tasks&amp;Times'!$F$51:$F$60=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="G5" s="15" cm="1">
-        <f t="array" ref="G5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$61:$H$70,'Worklog_Tasks&amp;Times'!$F$61:$F$70=$B5)),0)</f>
+        <f t="array" ref="G5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$65:$H$74,'Worklog_Tasks&amp;Times'!$F$65:$F$74=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="15" cm="1">
-        <f t="array" ref="H5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$75:$H$84,'Worklog_Tasks&amp;Times'!$F$75:$F$84=$B5)),0)</f>
+        <f t="array" ref="H5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$79:$H$88,'Worklog_Tasks&amp;Times'!$F$79:$F$88=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="15" cm="1">
-        <f t="array" ref="I5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$89:$H$98,'Worklog_Tasks&amp;Times'!$F$89:$F$98=$B5)),0)</f>
+        <f t="array" ref="I5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$93:$H$102,'Worklog_Tasks&amp;Times'!$F$93:$F$102=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="J5" s="15" cm="1">
-        <f t="array" ref="J5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$103:$H$112,'Worklog_Tasks&amp;Times'!$F$103:$F$112=$B5)),0)</f>
+        <f t="array" ref="J5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$107:$H$116,'Worklog_Tasks&amp;Times'!$F$107:$F$116=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="9">
@@ -3754,41 +4004,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="str">
         <f>'Drop-downs'!C5</f>
         <v>ILO 1.1</v>
       </c>
       <c r="C6" s="15" cm="1">
-        <f t="array" ref="C6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$14,'Worklog_Tasks&amp;Times'!$F$5:$F$14=$B6)),0)</f>
+        <f t="array" ref="C6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$15,'Worklog_Tasks&amp;Times'!$F$5:$F$15=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="D6" s="15" cm="1">
-        <f t="array" ref="D6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$19:$H$28,'Worklog_Tasks&amp;Times'!$F$19:$F$28=$B6)),0)</f>
+        <f t="array" ref="D6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$23:$H$32,'Worklog_Tasks&amp;Times'!$F$23:$F$32=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="15" cm="1">
-        <f t="array" ref="E6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$33:$H$42,'Worklog_Tasks&amp;Times'!$F$33:$F$42=$B6)),0)</f>
+        <f t="array" ref="E6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$37:$H$46,'Worklog_Tasks&amp;Times'!$F$37:$F$46=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="F6" s="15" cm="1">
-        <f t="array" ref="F6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$47:$H$56,'Worklog_Tasks&amp;Times'!$F$47:$F$56=$B6)),0)</f>
+        <f t="array" ref="F6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$51:$H$60,'Worklog_Tasks&amp;Times'!$F$51:$F$60=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="15" cm="1">
-        <f t="array" ref="G6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$61:$H$70,'Worklog_Tasks&amp;Times'!$F$61:$F$70=$B6)),0)</f>
+        <f t="array" ref="G6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$65:$H$74,'Worklog_Tasks&amp;Times'!$F$65:$F$74=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="15" cm="1">
-        <f t="array" ref="H6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$75:$H$84,'Worklog_Tasks&amp;Times'!$F$75:$F$84=$B6)),0)</f>
+        <f t="array" ref="H6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$79:$H$88,'Worklog_Tasks&amp;Times'!$F$79:$F$88=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="15" cm="1">
-        <f t="array" ref="I6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$89:$H$98,'Worklog_Tasks&amp;Times'!$F$89:$F$98=$B6)),0)</f>
+        <f t="array" ref="I6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$93:$H$102,'Worklog_Tasks&amp;Times'!$F$93:$F$102=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="J6" s="15" cm="1">
-        <f t="array" ref="J6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$103:$H$112,'Worklog_Tasks&amp;Times'!$F$103:$F$112=$B6)),0)</f>
+        <f t="array" ref="J6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$107:$H$116,'Worklog_Tasks&amp;Times'!$F$107:$F$116=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="9">
@@ -3796,41 +4046,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="str">
         <f>'Drop-downs'!C6</f>
         <v>ILO 2.1</v>
       </c>
       <c r="C7" s="15" cm="1">
-        <f t="array" ref="C7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$14,'Worklog_Tasks&amp;Times'!$F$5:$F$14=$B7)),0)</f>
+        <f t="array" ref="C7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$15,'Worklog_Tasks&amp;Times'!$F$5:$F$15=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="D7" s="15" cm="1">
-        <f t="array" ref="D7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$19:$H$28,'Worklog_Tasks&amp;Times'!$F$19:$F$28=$B7)),0)</f>
+        <f t="array" ref="D7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$23:$H$32,'Worklog_Tasks&amp;Times'!$F$23:$F$32=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="15" cm="1">
-        <f t="array" ref="E7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$33:$H$42,'Worklog_Tasks&amp;Times'!$F$33:$F$42=$B7)),0)</f>
+        <f t="array" ref="E7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$37:$H$46,'Worklog_Tasks&amp;Times'!$F$37:$F$46=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="15" cm="1">
-        <f t="array" ref="F7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$47:$H$56,'Worklog_Tasks&amp;Times'!$F$47:$F$56=$B7)),0)</f>
+        <f t="array" ref="F7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$51:$H$60,'Worklog_Tasks&amp;Times'!$F$51:$F$60=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="15" cm="1">
-        <f t="array" ref="G7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$61:$H$70,'Worklog_Tasks&amp;Times'!$F$61:$F$70=$B7)),0)</f>
+        <f t="array" ref="G7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$65:$H$74,'Worklog_Tasks&amp;Times'!$F$65:$F$74=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="15" cm="1">
-        <f t="array" ref="H7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$75:$H$84,'Worklog_Tasks&amp;Times'!$F$75:$F$84=$B7)),0)</f>
+        <f t="array" ref="H7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$79:$H$88,'Worklog_Tasks&amp;Times'!$F$79:$F$88=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="15" cm="1">
-        <f t="array" ref="I7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$89:$H$98,'Worklog_Tasks&amp;Times'!$F$89:$F$98=$B7)),0)</f>
+        <f t="array" ref="I7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$93:$H$102,'Worklog_Tasks&amp;Times'!$F$93:$F$102=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="J7" s="15" cm="1">
-        <f t="array" ref="J7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$103:$H$112,'Worklog_Tasks&amp;Times'!$F$103:$F$112=$B7)),0)</f>
+        <f t="array" ref="J7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$107:$H$116,'Worklog_Tasks&amp;Times'!$F$107:$F$116=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="9">
@@ -3838,41 +4088,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="str">
         <f>'Drop-downs'!C7</f>
         <v>ILO 3.1</v>
       </c>
       <c r="C8" s="15" cm="1">
-        <f t="array" ref="C8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$14,'Worklog_Tasks&amp;Times'!$F$5:$F$14=$B8)),0)</f>
+        <f t="array" ref="C8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$15,'Worklog_Tasks&amp;Times'!$F$5:$F$15=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="D8" s="15" cm="1">
-        <f t="array" ref="D8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$19:$H$28,'Worklog_Tasks&amp;Times'!$F$19:$F$28=$B8)),0)</f>
+        <f t="array" ref="D8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$23:$H$32,'Worklog_Tasks&amp;Times'!$F$23:$F$32=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="15" cm="1">
-        <f t="array" ref="E8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$33:$H$42,'Worklog_Tasks&amp;Times'!$F$33:$F$42=$B8)),0)</f>
+        <f t="array" ref="E8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$37:$H$46,'Worklog_Tasks&amp;Times'!$F$37:$F$46=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="15" cm="1">
-        <f t="array" ref="F8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$47:$H$56,'Worklog_Tasks&amp;Times'!$F$47:$F$56=$B8)),0)</f>
+        <f t="array" ref="F8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$51:$H$60,'Worklog_Tasks&amp;Times'!$F$51:$F$60=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="15" cm="1">
-        <f t="array" ref="G8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$61:$H$70,'Worklog_Tasks&amp;Times'!$F$61:$F$70=$B8)),0)</f>
+        <f t="array" ref="G8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$65:$H$74,'Worklog_Tasks&amp;Times'!$F$65:$F$74=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="15" cm="1">
-        <f t="array" ref="H8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$75:$H$84,'Worklog_Tasks&amp;Times'!$F$75:$F$84=$B8)),0)</f>
+        <f t="array" ref="H8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$79:$H$88,'Worklog_Tasks&amp;Times'!$F$79:$F$88=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="15" cm="1">
-        <f t="array" ref="I8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$89:$H$98,'Worklog_Tasks&amp;Times'!$F$89:$F$98=$B8)),0)</f>
+        <f t="array" ref="I8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$93:$H$102,'Worklog_Tasks&amp;Times'!$F$93:$F$102=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="J8" s="15" cm="1">
-        <f t="array" ref="J8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$103:$H$112,'Worklog_Tasks&amp;Times'!$F$103:$F$112=$B8)),0)</f>
+        <f t="array" ref="J8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$107:$H$116,'Worklog_Tasks&amp;Times'!$F$107:$F$116=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="9">
@@ -3880,41 +4130,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="str">
         <f>'Drop-downs'!C8</f>
         <v>ILO 7.1</v>
       </c>
       <c r="C9" s="15" cm="1">
-        <f t="array" ref="C9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$14,'Worklog_Tasks&amp;Times'!$F$5:$F$14=$B9)),0)</f>
+        <f t="array" ref="C9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$15,'Worklog_Tasks&amp;Times'!$F$5:$F$15=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="15" cm="1">
-        <f t="array" ref="D9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$19:$H$28,'Worklog_Tasks&amp;Times'!$F$19:$F$28=$B9)),0)</f>
+        <f t="array" ref="D9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$23:$H$32,'Worklog_Tasks&amp;Times'!$F$23:$F$32=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="15" cm="1">
-        <f t="array" ref="E9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$33:$H$42,'Worklog_Tasks&amp;Times'!$F$33:$F$42=$B9)),0)</f>
+        <f t="array" ref="E9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$37:$H$46,'Worklog_Tasks&amp;Times'!$F$37:$F$46=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="15" cm="1">
-        <f t="array" ref="F9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$47:$H$56,'Worklog_Tasks&amp;Times'!$F$47:$F$56=$B9)),0)</f>
+        <f t="array" ref="F9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$51:$H$60,'Worklog_Tasks&amp;Times'!$F$51:$F$60=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="G9" s="15" cm="1">
-        <f t="array" ref="G9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$61:$H$70,'Worklog_Tasks&amp;Times'!$F$61:$F$70=$B9)),0)</f>
+        <f t="array" ref="G9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$65:$H$74,'Worklog_Tasks&amp;Times'!$F$65:$F$74=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="15" cm="1">
-        <f t="array" ref="H9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$75:$H$84,'Worklog_Tasks&amp;Times'!$F$75:$F$84=$B9)),0)</f>
+        <f t="array" ref="H9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$79:$H$88,'Worklog_Tasks&amp;Times'!$F$79:$F$88=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="15" cm="1">
-        <f t="array" ref="I9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$89:$H$98,'Worklog_Tasks&amp;Times'!$F$89:$F$98=$B9)),0)</f>
+        <f t="array" ref="I9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$93:$H$102,'Worklog_Tasks&amp;Times'!$F$93:$F$102=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="J9" s="15" cm="1">
-        <f t="array" ref="J9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$103:$H$112,'Worklog_Tasks&amp;Times'!$F$103:$F$112=$B9)),0)</f>
+        <f t="array" ref="J9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$107:$H$116,'Worklog_Tasks&amp;Times'!$F$107:$F$116=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="K9" s="9">
@@ -3922,41 +4172,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="str">
         <f>'Drop-downs'!C9</f>
         <v>ILO 10.1</v>
       </c>
       <c r="C10" s="15" cm="1">
-        <f t="array" ref="C10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$14,'Worklog_Tasks&amp;Times'!$F$5:$F$14=$B10)),0)</f>
+        <f t="array" ref="C10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$15,'Worklog_Tasks&amp;Times'!$F$5:$F$15=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="D10" s="15" cm="1">
-        <f t="array" ref="D10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$19:$H$28,'Worklog_Tasks&amp;Times'!$F$19:$F$28=$B10)),0)</f>
+        <f t="array" ref="D10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$23:$H$32,'Worklog_Tasks&amp;Times'!$F$23:$F$32=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="15" cm="1">
-        <f t="array" ref="E10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$33:$H$42,'Worklog_Tasks&amp;Times'!$F$33:$F$42=$B10)),0)</f>
+        <f t="array" ref="E10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$37:$H$46,'Worklog_Tasks&amp;Times'!$F$37:$F$46=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="15" cm="1">
-        <f t="array" ref="F10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$47:$H$56,'Worklog_Tasks&amp;Times'!$F$47:$F$56=$B10)),0)</f>
+        <f t="array" ref="F10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$51:$H$60,'Worklog_Tasks&amp;Times'!$F$51:$F$60=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="15" cm="1">
-        <f t="array" ref="G10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$61:$H$70,'Worklog_Tasks&amp;Times'!$F$61:$F$70=$B10)),0)</f>
+        <f t="array" ref="G10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$65:$H$74,'Worklog_Tasks&amp;Times'!$F$65:$F$74=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="H10" s="15" cm="1">
-        <f t="array" ref="H10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$75:$H$84,'Worklog_Tasks&amp;Times'!$F$75:$F$84=$B10)),0)</f>
+        <f t="array" ref="H10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$79:$H$88,'Worklog_Tasks&amp;Times'!$F$79:$F$88=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="15" cm="1">
-        <f t="array" ref="I10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$89:$H$98,'Worklog_Tasks&amp;Times'!$F$89:$F$98=$B10)),0)</f>
+        <f t="array" ref="I10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$93:$H$102,'Worklog_Tasks&amp;Times'!$F$93:$F$102=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="J10" s="15" cm="1">
-        <f t="array" ref="J10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$103:$H$112,'Worklog_Tasks&amp;Times'!$F$103:$F$112=$B10)),0)</f>
+        <f t="array" ref="J10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$107:$H$116,'Worklog_Tasks&amp;Times'!$F$107:$F$116=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="9">
@@ -3964,13 +4214,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="18">
         <f>SUM(C3:C10)</f>
-        <v>12.25</v>
+        <v>22.25</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ref="D11:J11" si="2">SUM(D3:D10)</f>
@@ -4002,7 +4252,7 @@
       </c>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -4014,56 +4264,56 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="71" t="s">
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="70" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+    </row>
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4098,12 +4348,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="6" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -4114,7 +4364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -4125,7 +4375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -4136,7 +4386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -4147,7 +4397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -4158,7 +4408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -4169,7 +4419,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4180,7 +4430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -4191,7 +4441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -4202,1031 +4452,1046 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097BBA0C18E1DFB46803FF051CCD59780" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b2e5292fc72b3dc4d6f38fe805bc2a0a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c6a23e8c-1f3e-4470-997e-5edaed3f3e00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d59150214508105928cc6aeb9195e363" ns3:_="">
     <xsd:import namespace="c6a23e8c-1f3e-4470-997e-5edaed3f3e00"/>
@@ -5376,22 +5641,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c6a23e8c-1f3e-4470-997e-5edaed3f3e00"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C17B9A7-D204-455C-B7DC-86112787656C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5407,28 +5681,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c6a23e8c-1f3e-4470-997e-5edaed3f3e00"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>